--- a/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Mat</t>
   </si>
@@ -82,13 +82,73 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>ZAVALETA</t>
   </si>
   <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ARLET</t>
+  </si>
+  <si>
     <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>YAMILE</t>
+  </si>
+  <si>
+    <t>JOSELIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>EDGAR RAMSES</t>
+  </si>
+  <si>
+    <t>MARIA ASUNCION</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1057,24 +1117,185 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920263</v>
+        <v>20330051920252</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920263</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920040</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920295</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920313</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920373</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920053</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>Mat</t>
   </si>
@@ -82,9 +82,15 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ADELL</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>BACILIO</t>
+  </si>
+  <si>
     <t>CARRERA</t>
   </si>
   <si>
@@ -97,18 +103,21 @@
     <t>HERRERA</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>AGUILAR</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>ATILANO</t>
+  </si>
+  <si>
     <t>ZAVALETA</t>
   </si>
   <si>
@@ -118,18 +127,21 @@
     <t>CERON</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
+    <t>CRISTOPHER ALAIN</t>
   </si>
   <si>
     <t>ARLET</t>
   </si>
   <si>
+    <t>YAIR</t>
+  </si>
+  <si>
     <t>ALFREDO</t>
   </si>
   <si>
@@ -142,13 +154,10 @@
     <t>YAMILE</t>
   </si>
   <si>
+    <t>MARIA ASUNCION</t>
+  </si>
+  <si>
     <t>JOSELIN GUADALUPE</t>
-  </si>
-  <si>
-    <t>EDGAR RAMSES</t>
-  </si>
-  <si>
-    <t>MARIA ASUNCION</t>
   </si>
 </sst>
 </file>
@@ -549,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -561,7 +570,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>57.14</v>
+        <v>55.56</v>
       </c>
       <c r="H2">
         <v>7.6</v>
@@ -601,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -613,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>8.1</v>
@@ -627,7 +636,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -636,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>68.56999999999999</v>
+        <v>69.44</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -679,10 +688,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -691,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="G7">
-        <v>61.76</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>7.9</v>
@@ -747,10 +756,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -793,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>12</v>
@@ -816,13 +825,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -862,10 +871,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>21</v>
@@ -927,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -939,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>57.14</v>
+        <v>55.56</v>
       </c>
       <c r="H2">
         <v>7.6</v>
@@ -979,10 +988,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -991,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>8.1</v>
@@ -1005,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1014,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>68.56999999999999</v>
+        <v>69.44</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1057,10 +1066,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1069,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="G7">
-        <v>61.76</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>7.9</v>
@@ -1082,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1117,22 +1126,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920252</v>
+        <v>20330051920002</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1140,22 +1149,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920263</v>
+        <v>20330051920252</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1163,22 +1172,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920040</v>
+        <v>20330051920336</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1186,22 +1195,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920284</v>
+        <v>20330051920263</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1209,22 +1218,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920295</v>
+        <v>20330051920040</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1232,16 +1241,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920313</v>
+        <v>20330051920284</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1255,22 +1264,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920373</v>
+        <v>20330051920295</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1284,10 +1293,10 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1296,6 +1305,29 @@
         <v>13</v>
       </c>
       <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920313</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
@@ -85,24 +85,24 @@
     <t>ADELL</t>
   </si>
   <si>
+    <t>BACILIO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>BACILIO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
@@ -112,21 +112,21 @@
     <t>AGUILAR</t>
   </si>
   <si>
+    <t>ATILANO</t>
+  </si>
+  <si>
+    <t>ZAVALETA</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>ATILANO</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
@@ -136,22 +136,22 @@
     <t>CRISTOPHER ALAIN</t>
   </si>
   <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>YAMILE</t>
+  </si>
+  <si>
     <t>ARLET</t>
-  </si>
-  <si>
-    <t>YAIR</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>YAMILE</t>
   </si>
   <si>
     <t>MARIA ASUNCION</t>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920252</v>
+        <v>20330051920336</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920336</v>
+        <v>20330051920263</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920263</v>
+        <v>20330051920040</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920040</v>
+        <v>20330051920284</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>42</v>
@@ -1233,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920284</v>
+        <v>20330051920295</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920295</v>
+        <v>20330051920252</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>6</v>

--- a/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
+++ b/docentes/Avila Coronado Julieta - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>Mat</t>
   </si>
@@ -91,6 +91,12 @@
     <t>CARRERA</t>
   </si>
   <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>AMADOR</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>ZAVALETA</t>
   </si>
   <si>
+    <t>VICTORIANO</t>
+  </si>
+  <si>
     <t>PORRAS</t>
   </si>
   <si>
@@ -130,9 +139,6 @@
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>CRISTOPHER ALAIN</t>
   </si>
   <si>
@@ -140,6 +146,12 @@
   </si>
   <si>
     <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>ALDAIR OMAR</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
   </si>
   <si>
     <t>FRANCISCO ALAN</t>
@@ -1091,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1132,10 +1144,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1155,10 +1167,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1178,10 +1190,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1195,22 +1207,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920040</v>
+        <v>20330051920168</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1218,22 +1230,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920284</v>
+        <v>20330051920184</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1241,22 +1253,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920295</v>
+        <v>20330051920040</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1264,22 +1276,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920252</v>
+        <v>20330051920284</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1287,22 +1299,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920053</v>
+        <v>20330051920295</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1310,24 +1322,70 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920313</v>
+        <v>20330051920252</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920053</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920313</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>6</v>
       </c>
     </row>
